--- a/output stat tables.xlsx
+++ b/output stat tables.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="sf_harvest_calibration" localSheetId="0">Sheet1!$A$1:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,6 +24,72 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="sf_harvest_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\sf_harvest_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>SF harvest: MRIP</t>
+  </si>
+  <si>
+    <t>SF harvest: model</t>
+  </si>
+  <si>
+    <t>Difference (MRIP-model)</t>
+  </si>
+  <si>
+    <t>% Difference ((MRIP-model)/MRIP)*100</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sf_harvest_calibration" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +409,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>55386</v>
+      </c>
+      <c r="C2">
+        <v>56428.2</v>
+      </c>
+      <c r="D2">
+        <v>-1042.2</v>
+      </c>
+      <c r="E2">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>213591.6</v>
+      </c>
+      <c r="C3">
+        <v>221383.8</v>
+      </c>
+      <c r="D3">
+        <v>-7792.2</v>
+      </c>
+      <c r="E3">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>89843.4</v>
+      </c>
+      <c r="C4">
+        <v>88200.1</v>
+      </c>
+      <c r="D4">
+        <v>1643.3</v>
+      </c>
+      <c r="E4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>561172.9</v>
+      </c>
+      <c r="C5">
+        <v>564460.19999999995</v>
+      </c>
+      <c r="D5">
+        <v>-3287.3</v>
+      </c>
+      <c r="E5">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1108158.1000000001</v>
+      </c>
+      <c r="C6">
+        <v>1085086.5</v>
+      </c>
+      <c r="D6">
+        <v>23071.7</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>91025</v>
+      </c>
+      <c r="C7">
+        <v>92674.3</v>
+      </c>
+      <c r="D7">
+        <v>-1649.3</v>
+      </c>
+      <c r="E7">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>79370.899999999994</v>
+      </c>
+      <c r="C8">
+        <v>76814.100000000006</v>
+      </c>
+      <c r="D8">
+        <v>2556.8000000000002</v>
+      </c>
+      <c r="E8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>149785.4</v>
+      </c>
+      <c r="C9">
+        <v>154200.1</v>
+      </c>
+      <c r="D9">
+        <v>-4414.7</v>
+      </c>
+      <c r="E9">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>34894.6</v>
+      </c>
+      <c r="C10">
+        <v>34816.1</v>
+      </c>
+      <c r="D10">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2383227.9</v>
+      </c>
+      <c r="C11">
+        <v>2374063.4</v>
+      </c>
+      <c r="D11">
+        <v>9164.6</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output stat tables.xlsx
+++ b/output stat tables.xlsx
@@ -9,13 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SF calibration" sheetId="1" r:id="rId1"/>
+    <sheet name="BSB calibration" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="sf_harvest_calibration" localSheetId="0">Sheet1!$A$1:$E$11</definedName>
+    <definedName name="bsb_harvest_calibration" localSheetId="1">'BSB calibration'!$A$1:$E$11</definedName>
+    <definedName name="bsb_releases_calibration_1" localSheetId="1">'BSB calibration'!$A$14:$E$24</definedName>
+    <definedName name="bsb_tot_cat_calibration" localSheetId="1">'BSB calibration'!$A$27:$E$37</definedName>
+    <definedName name="sf_harvest_calibration1" localSheetId="0">'SF calibration'!$A$2:$E$12</definedName>
+    <definedName name="sf_releases_calibration" localSheetId="0">'SF calibration'!$A$15:$E$25</definedName>
+    <definedName name="sf_tot_cat_calibration" localSheetId="0">'SF calibration'!$A$28:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +35,63 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="sf_harvest_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\sf_harvest_calibration.txt" comma="1">
+  <connection id="1" name="bsb_harvest_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\bsb_harvest_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="bsb_releases_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\bsb_releases_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="bsb_tot_cat_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\bsb_tot_cat_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="sf_harvest_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\sf_harvest_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="sf_releases_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\sf_releases_calibration.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="sf_tot_cat_calibration" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\sf_tot_cat_calibration.txt" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -43,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>state</t>
   </si>
@@ -88,6 +150,39 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>SF releases: MRIP</t>
+  </si>
+  <si>
+    <t>SF releases: model</t>
+  </si>
+  <si>
+    <t>SF total catch: MRIP</t>
+  </si>
+  <si>
+    <t>SF total catch: model</t>
+  </si>
+  <si>
+    <t>BSB harvest: MRIP</t>
+  </si>
+  <si>
+    <t>BSB harvest: model</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>BSB releases: MRIP</t>
+  </si>
+  <si>
+    <t>BSB releases: model</t>
+  </si>
+  <si>
+    <t>BSB total catch: MRIP</t>
+  </si>
+  <si>
+    <t>BSB total catch: model</t>
   </si>
 </sst>
 </file>
@@ -143,7 +238,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sf_harvest_calibration" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sf_tot_cat_calibration" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sf_releases_calibration" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sf_harvest_calibration1" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bsb_tot_cat_calibration" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bsb_releases_calibration_1" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bsb_harvest_calibration" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,15 +524,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>55386</v>
+      </c>
+      <c r="C3">
+        <v>56428.2</v>
+      </c>
+      <c r="D3">
+        <v>-1042.2</v>
+      </c>
+      <c r="E3">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>213591.6</v>
+      </c>
+      <c r="C4">
+        <v>221383.8</v>
+      </c>
+      <c r="D4">
+        <v>-7792.2</v>
+      </c>
+      <c r="E4">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>89843.4</v>
+      </c>
+      <c r="C5">
+        <v>88200.1</v>
+      </c>
+      <c r="D5">
+        <v>1643.3</v>
+      </c>
+      <c r="E5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>561172.9</v>
+      </c>
+      <c r="C6">
+        <v>564460.19999999995</v>
+      </c>
+      <c r="D6">
+        <v>-3287.3</v>
+      </c>
+      <c r="E6">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1108158.1000000001</v>
+      </c>
+      <c r="C7">
+        <v>1085086.5</v>
+      </c>
+      <c r="D7">
+        <v>23071.7</v>
+      </c>
+      <c r="E7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>91025</v>
+      </c>
+      <c r="C8">
+        <v>92674.3</v>
+      </c>
+      <c r="D8">
+        <v>-1649.3</v>
+      </c>
+      <c r="E8">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>79370.899999999994</v>
+      </c>
+      <c r="C9">
+        <v>76814.100000000006</v>
+      </c>
+      <c r="D9">
+        <v>2556.8000000000002</v>
+      </c>
+      <c r="E9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>149785.4</v>
+      </c>
+      <c r="C10">
+        <v>154200.1</v>
+      </c>
+      <c r="D10">
+        <v>-4414.7</v>
+      </c>
+      <c r="E10">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>34894.6</v>
+      </c>
+      <c r="C11">
+        <v>34816.1</v>
+      </c>
+      <c r="D11">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2383227.9</v>
+      </c>
+      <c r="C12">
+        <v>2374063.4</v>
+      </c>
+      <c r="D12">
+        <v>9164.6</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>224420.9</v>
+      </c>
+      <c r="C16">
+        <v>243721.60000000001</v>
+      </c>
+      <c r="D16">
+        <v>-19300.7</v>
+      </c>
+      <c r="E16">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1319351.8999999999</v>
+      </c>
+      <c r="C17">
+        <v>1157257.7</v>
+      </c>
+      <c r="D17">
+        <v>162094.20000000001</v>
+      </c>
+      <c r="E17">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1065404.5</v>
+      </c>
+      <c r="C18">
+        <v>1090814.8</v>
+      </c>
+      <c r="D18">
+        <v>-25410.3</v>
+      </c>
+      <c r="E18">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>9001801</v>
+      </c>
+      <c r="C19">
+        <v>9395430.4000000004</v>
+      </c>
+      <c r="D19">
+        <v>-393629.4</v>
+      </c>
+      <c r="E19">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>13068170</v>
+      </c>
+      <c r="C20">
+        <v>13300244.800000001</v>
+      </c>
+      <c r="D20">
+        <v>-232074.8</v>
+      </c>
+      <c r="E20">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>441177.59999999998</v>
+      </c>
+      <c r="C21">
+        <v>648606.6</v>
+      </c>
+      <c r="D21">
+        <v>-207429</v>
+      </c>
+      <c r="E21">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>938193.2</v>
+      </c>
+      <c r="C22">
+        <v>909236.5</v>
+      </c>
+      <c r="D22">
+        <v>28956.7</v>
+      </c>
+      <c r="E22">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>1367379</v>
+      </c>
+      <c r="C23">
+        <v>1300861.7</v>
+      </c>
+      <c r="D23">
+        <v>66517.3</v>
+      </c>
+      <c r="E23">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1469.1</v>
+      </c>
+      <c r="C24">
+        <v>15202.4</v>
+      </c>
+      <c r="D24">
+        <v>-13733.4</v>
+      </c>
+      <c r="E24">
+        <v>-934.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>27427367.100000001</v>
+      </c>
+      <c r="C25">
+        <v>28061376.5</v>
+      </c>
+      <c r="D25">
+        <v>-634009.30000000005</v>
+      </c>
+      <c r="E25">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>279806.8</v>
+      </c>
+      <c r="C29">
+        <v>300149.8</v>
+      </c>
+      <c r="D29">
+        <v>-20342.900000000001</v>
+      </c>
+      <c r="E29">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1532943.4</v>
+      </c>
+      <c r="C30">
+        <v>1378641.4</v>
+      </c>
+      <c r="D30">
+        <v>154301.9</v>
+      </c>
+      <c r="E30">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1155247.8999999999</v>
+      </c>
+      <c r="C31">
+        <v>1179014.8999999999</v>
+      </c>
+      <c r="D31">
+        <v>-23767.1</v>
+      </c>
+      <c r="E31">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>9562974</v>
+      </c>
+      <c r="C32">
+        <v>9959890.5999999996</v>
+      </c>
+      <c r="D32">
+        <v>-396916.6</v>
+      </c>
+      <c r="E32">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>14176328</v>
+      </c>
+      <c r="C33">
+        <v>14385331.199999999</v>
+      </c>
+      <c r="D33">
+        <v>-209003.2</v>
+      </c>
+      <c r="E33">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>532202.6</v>
+      </c>
+      <c r="C34">
+        <v>741280.9</v>
+      </c>
+      <c r="D34">
+        <v>-209078.39999999999</v>
+      </c>
+      <c r="E34">
+        <v>-39.299999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1017564.2</v>
+      </c>
+      <c r="C35">
+        <v>986050.7</v>
+      </c>
+      <c r="D35">
+        <v>31513.5</v>
+      </c>
+      <c r="E35">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1517164</v>
+      </c>
+      <c r="C36">
+        <v>1455061.8</v>
+      </c>
+      <c r="D36">
+        <v>62102.2</v>
+      </c>
+      <c r="E36">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>36363.699999999997</v>
+      </c>
+      <c r="C37">
+        <v>50018.5</v>
+      </c>
+      <c r="D37">
+        <v>-13654.8</v>
+      </c>
+      <c r="E37">
+        <v>-37.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>29810594.600000001</v>
+      </c>
+      <c r="C38">
+        <v>30435439.899999999</v>
+      </c>
+      <c r="D38">
+        <v>-624845.30000000005</v>
+      </c>
+      <c r="E38">
+        <v>-2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -427,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -444,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>55386</v>
+        <v>54178.400000000001</v>
       </c>
       <c r="C2">
-        <v>56428.2</v>
+        <v>51451.5</v>
       </c>
       <c r="D2">
-        <v>-1042.2</v>
+        <v>2726.9</v>
       </c>
       <c r="E2">
-        <v>-1.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>213591.6</v>
+        <v>214471.3</v>
       </c>
       <c r="C3">
-        <v>221383.8</v>
+        <v>214497.8</v>
       </c>
       <c r="D3">
-        <v>-7792.2</v>
+        <v>-26.5</v>
       </c>
       <c r="E3">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,16 +1178,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>89843.4</v>
+        <v>153564.4</v>
       </c>
       <c r="C4">
-        <v>88200.1</v>
+        <v>157292.20000000001</v>
       </c>
       <c r="D4">
-        <v>1643.3</v>
+        <v>-3727.8</v>
       </c>
       <c r="E4">
-        <v>1.8</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>561172.9</v>
+        <v>556955.1</v>
       </c>
       <c r="C5">
-        <v>564460.19999999995</v>
+        <v>548471.69999999995</v>
       </c>
       <c r="D5">
-        <v>-3287.3</v>
+        <v>8483.4</v>
       </c>
       <c r="E5">
-        <v>-0.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,16 +1212,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1108158.1000000001</v>
+        <v>123859.8</v>
       </c>
       <c r="C6">
-        <v>1085086.5</v>
+        <v>132216.6</v>
       </c>
       <c r="D6">
-        <v>23071.7</v>
+        <v>-8356.7999999999993</v>
       </c>
       <c r="E6">
-        <v>2.1</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>91025</v>
+        <v>14347.9</v>
       </c>
       <c r="C7">
-        <v>92674.3</v>
+        <v>13030.5</v>
       </c>
       <c r="D7">
-        <v>-1649.3</v>
+        <v>1317.4</v>
       </c>
       <c r="E7">
-        <v>-1.8</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>79370.899999999994</v>
+        <v>13271.8</v>
       </c>
       <c r="C8">
-        <v>76814.100000000006</v>
+        <v>12697.5</v>
       </c>
       <c r="D8">
-        <v>2556.8000000000002</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="E8">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,16 +1263,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>149785.4</v>
+        <v>31597.3</v>
       </c>
       <c r="C9">
-        <v>154200.1</v>
+        <v>31652.5</v>
       </c>
       <c r="D9">
-        <v>-4414.7</v>
+        <v>-55.2</v>
       </c>
       <c r="E9">
-        <v>-2.9</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>34894.6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>34816.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,19 +1297,405 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2383227.9</v>
+        <v>1162246.1000000001</v>
       </c>
       <c r="C11">
-        <v>2374063.4</v>
+        <v>1161310.3999999999</v>
       </c>
       <c r="D11">
-        <v>9164.6</v>
+        <v>935.7</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>254367.3</v>
+      </c>
+      <c r="C15">
+        <v>118850.3</v>
+      </c>
+      <c r="D15">
+        <v>135517</v>
+      </c>
+      <c r="E15">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1617711.2</v>
+      </c>
+      <c r="C16">
+        <v>551647.1</v>
+      </c>
+      <c r="D16">
+        <v>1066064.2</v>
+      </c>
+      <c r="E16">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>622464.1</v>
+      </c>
+      <c r="C17">
+        <v>529070.80000000005</v>
+      </c>
+      <c r="D17">
+        <v>93393.3</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>3612657.5</v>
+      </c>
+      <c r="C18">
+        <v>5110046.9000000004</v>
+      </c>
+      <c r="D18">
+        <v>-1497389.4</v>
+      </c>
+      <c r="E18">
+        <v>-41.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1936833.9</v>
+      </c>
+      <c r="C19">
+        <v>2084828.6</v>
+      </c>
+      <c r="D19">
+        <v>-147994.70000000001</v>
+      </c>
+      <c r="E19">
+        <v>-7.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>128101.6</v>
+      </c>
+      <c r="C20">
+        <v>228668</v>
+      </c>
+      <c r="D20">
+        <v>-100566.39999999999</v>
+      </c>
+      <c r="E20">
+        <v>-78.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>535686.1</v>
+      </c>
+      <c r="C21">
+        <v>319807.3</v>
+      </c>
+      <c r="D21">
+        <v>215878.8</v>
+      </c>
+      <c r="E21">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>269882.2</v>
+      </c>
+      <c r="C22">
+        <v>451928.1</v>
+      </c>
+      <c r="D22">
+        <v>-182045.8</v>
+      </c>
+      <c r="E22">
+        <v>-67.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>909</v>
+      </c>
+      <c r="C23">
+        <v>16706.599999999999</v>
+      </c>
+      <c r="D23">
+        <v>-15797.6</v>
+      </c>
+      <c r="E23">
+        <v>-1737.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>8978612.9000000004</v>
+      </c>
+      <c r="C24">
+        <v>9411553.5</v>
+      </c>
+      <c r="D24">
+        <v>-432940.6</v>
+      </c>
+      <c r="E24">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>308545.7</v>
+      </c>
+      <c r="C28">
+        <v>170301.8</v>
+      </c>
+      <c r="D28">
+        <v>138243.9</v>
+      </c>
+      <c r="E28">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>1832182.6</v>
+      </c>
+      <c r="C29">
+        <v>766144.9</v>
+      </c>
+      <c r="D29">
+        <v>1066037.8</v>
+      </c>
+      <c r="E29">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>776028.5</v>
+      </c>
+      <c r="C30">
+        <v>686363</v>
+      </c>
+      <c r="D30">
+        <v>89665.5</v>
+      </c>
+      <c r="E30">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>4169612.8</v>
+      </c>
+      <c r="C31">
+        <v>5658518.5</v>
+      </c>
+      <c r="D31">
+        <v>-1488905.8</v>
+      </c>
+      <c r="E31">
+        <v>-35.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2060693.6</v>
+      </c>
+      <c r="C32">
+        <v>2217045.2000000002</v>
+      </c>
+      <c r="D32">
+        <v>-156351.6</v>
+      </c>
+      <c r="E32">
+        <v>-7.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>142449.5</v>
+      </c>
+      <c r="C33">
+        <v>241698.6</v>
+      </c>
+      <c r="D33">
+        <v>-99249</v>
+      </c>
+      <c r="E33">
+        <v>-69.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>548957.9</v>
+      </c>
+      <c r="C34">
+        <v>332504.8</v>
+      </c>
+      <c r="D34">
+        <v>216453.1</v>
+      </c>
+      <c r="E34">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>301479.59999999998</v>
+      </c>
+      <c r="C35">
+        <v>483580.5</v>
+      </c>
+      <c r="D35">
+        <v>-182100.9</v>
+      </c>
+      <c r="E35">
+        <v>-60.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>909</v>
+      </c>
+      <c r="C36">
+        <v>16706.599999999999</v>
+      </c>
+      <c r="D36">
+        <v>-15797.6</v>
+      </c>
+      <c r="E36">
+        <v>-1737.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>10140859.199999999</v>
+      </c>
+      <c r="C37">
+        <v>10572863.800000001</v>
+      </c>
+      <c r="D37">
+        <v>-432004.6</v>
+      </c>
+      <c r="E37">
+        <v>-4.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>